--- a/medicine/Mort/Souviens-toi…_l'été_dernier_3/Souviens-toi…_l'été_dernier_3.xlsx
+++ b/medicine/Mort/Souviens-toi…_l'été_dernier_3/Souviens-toi…_l'été_dernier_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Souviens-toi%E2%80%A6_l%27%C3%A9t%C3%A9_dernier_3</t>
+          <t>Souviens-toi…_l'été_dernier_3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Souviens-toi… l'été dernier 3 ou Le Pacte du silence : Jusqu’à la mort au Québec (I'll Always Know What You Did Last Summer) est un film américain réalisé par Sylvain White et sorti directement en vidéo en 2006.
 Il est le troisième volet de la série de films Souviens-toi… l'été dernier. L'intrigue n'a cependant aucun lien avec Souviens-toi… l'été dernier (1997) et Souviens-toi… l'été dernier 2 (1998).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Souviens-toi%E2%80%A6_l%27%C3%A9t%C3%A9_dernier_3</t>
+          <t>Souviens-toi…_l'été_dernier_3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2005, Amber Williams se rend dans une fête foraine avec son petit ami Colby Patterson et leurs amis Zoe Warner, P. J. et Roger Pack. Après une mauvaise blague de Roger, P. J. est accidentellement tué. Les quatre amis décident alors de taire ce tragique événement, au risque de voir leur amitié prendre fin.
 Un an après, Amber découvre avec stupeur et tristesse que Colby ne poursuit plus ses études à la fac et préfère reprendre son travail de maître-nageur. Plus tard, Amber découvre 50 nouveaux messages laissés sur son portable. Ils disent tous « Je sais ce que tu as fait l'été dernier ». Elle rend alors visite à Zoe, avec qui elle avait coupé tout contact depuis l'accident. Zoe, qui n'a pas apprécié cette éloignement, semble s'en moquer. Le lendemain, les deux femmes partent à la recherche de Roger. Ce dernier prend peur en voyant le message et avoue qu'il n'a rien à voir avec tout ça. Même chose avec Colby qui reçoit à son tour un message inquiétant. Plus tard, Amber qui fait du VTT, s'arrête pour photographier l'orage approchant. Quand elle se retourne, elle constate que quelqu'un a bousillé les pneus de son vélo. Elle trouve refuge dans une gare de télécabine où elle trouve un technicien qui la fait descendre en plaine. Elle est attaquée dans le télécabine par le tueur au crochet.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Souviens-toi%E2%80%A6_l%27%C3%A9t%C3%A9_dernier_3</t>
+          <t>Souviens-toi…_l'été_dernier_3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Titre original : I'll Always Know What You Did Last Summer[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Titre original : I'll Always Know What You Did Last Summer
 Titre français : Souviens-toi… l'été dernier 3
 Titre québécois : Le Pacte du silence : Jusqu’à la mort
 Réalisation : Sylvain White
@@ -582,7 +598,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Souviens-toi%E2%80%A6_l%27%C3%A9t%C3%A9_dernier_3</t>
+          <t>Souviens-toi…_l'été_dernier_3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +616,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brooke Nevin (VF : Laura Préjean) : Amber Williams
 Torrey DeVitto (VF : Véronique Desmadryl) : Zoe Warner
@@ -622,7 +640,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Souviens-toi%E2%80%A6_l%27%C3%A9t%C3%A9_dernier_3</t>
+          <t>Souviens-toi…_l'été_dernier_3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -640,11 +658,13 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le projet d'un troisième film de la franchise Souviens-toi… l'été dernier est d'abord évoqué en 2000. Il doit voir les retours de Jennifer Love Hewitt, Brandy Norwood et Freddie Prinze Jr.. Cependant, le projet ne voit jamais le jour. Quelques années plus tard, un nouveau script avec de nouveaux personnages est développé. Jennifer Love Hewitt sera un temps annoncée pour un caméo, mais elle n'est finalement pas présente[2].
-Le réalisateur français Sylvain White est appelé à la rescousse pour reprendre le film après le renvoi du réalisateur quelques semaines avant le début du tournage[2]. 
-Alessandra Torresani devait initialement incarner Zoe Warner. Elle sera finalement remplacée par Torrey DeVitto[2]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le projet d'un troisième film de la franchise Souviens-toi… l'été dernier est d'abord évoqué en 2000. Il doit voir les retours de Jennifer Love Hewitt, Brandy Norwood et Freddie Prinze Jr.. Cependant, le projet ne voit jamais le jour. Quelques années plus tard, un nouveau script avec de nouveaux personnages est développé. Jennifer Love Hewitt sera un temps annoncée pour un caméo, mais elle n'est finalement pas présente.
+Le réalisateur français Sylvain White est appelé à la rescousse pour reprendre le film après le renvoi du réalisateur quelques semaines avant le début du tournage. 
+Alessandra Torresani devait initialement incarner Zoe Warner. Elle sera finalement remplacée par Torrey DeVitto. 
 </t>
         </is>
       </c>
@@ -655,7 +675,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Souviens-toi%E2%80%A6_l%27%C3%A9t%C3%A9_dernier_3</t>
+          <t>Souviens-toi…_l'été_dernier_3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -673,9 +693,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur l'agrégateur de critiques américain Rotten Tomatoes, il récolte 0% d'opinions favorables pour 6 critiques et une note moyenne de 2,55⁄10[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur l'agrégateur de critiques américain Rotten Tomatoes, il récolte 0% d'opinions favorables pour 6 critiques et une note moyenne de 2,55⁄10.
 </t>
         </is>
       </c>
